--- a/업로드할 파일들/ALLINONE.xlsx
+++ b/업로드할 파일들/ALLINONE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15ZD90P\Desktop\업로드할 파일들\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\FileUpload\업로드할 파일들\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56FFF866-B069-49AC-A8C1-14C01A81C825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DBBBD9-FDAB-4D33-BFD2-5095339DC8AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{232C633D-FA7D-4A8C-8B58-A46BC6690B00}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{232C633D-FA7D-4A8C-8B58-A46BC6690B00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -110,7 +110,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>480060</xdr:colOff>
+          <xdr:colOff>476250</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -122,7 +122,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A891F7A-90A2-BE35-6A94-3B2DFF69EFC0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -143,23 +143,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -172,13 +159,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>259080</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -190,7 +177,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B13DA8C-65D1-B348-E8ED-32394FFADF2A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -211,23 +198,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -242,13 +216,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>449580</xdr:colOff>
+          <xdr:colOff>447675</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>83820</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -258,7 +232,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0185E156-EA82-402E-79B1-84B95B18C0BD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -279,23 +253,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -308,15 +269,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>137160</xdr:colOff>
+          <xdr:colOff>133350</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -326,7 +287,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCF2061-B5A5-28F0-F4AB-930A5034A0A5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -347,23 +308,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -378,13 +326,13 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>624840</xdr:colOff>
+          <xdr:colOff>628650</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -394,7 +342,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D32036F-572B-81F3-E194-3738A555981A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -415,23 +363,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -446,13 +381,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>213360</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>243840</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -462,7 +397,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E8FC931-E503-538F-BEE5-50E3092882F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -483,23 +418,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -512,15 +434,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>259080</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>502920</xdr:colOff>
+          <xdr:colOff>504825</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -530,7 +452,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5120C38D-1AF6-DA62-EF81-95BE72686C0E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -551,23 +473,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -580,15 +489,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>541020</xdr:colOff>
+          <xdr:colOff>542925</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>83820</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -598,7 +507,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4000A59-0939-ADAB-16A2-3D373579E082}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -619,23 +528,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -648,15 +544,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>137160</xdr:colOff>
+          <xdr:colOff>133350</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -666,7 +562,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B51BB3-502D-F6B9-8652-4A357EFC2FBB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -687,23 +583,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -716,15 +599,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>411480</xdr:colOff>
+          <xdr:colOff>409575</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>655320</xdr:colOff>
+          <xdr:colOff>657225</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -734,7 +617,62 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864604E1-893D-2E49-A94B-4FA2D21326A5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>371475</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Object 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36073592-8BD3-4DC7-A33B-824D09F96E7F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1082,10 +1020,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1106,7 +1044,7 @@
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>480060</xdr:colOff>
+                <xdr:colOff>476250</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
@@ -1125,13 +1063,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>259080</xdr:colOff>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>60960</xdr:colOff>
+                <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
@@ -1152,13 +1090,13 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>533400</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>449580</xdr:colOff>
+                <xdr:colOff>447675</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>83820</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1175,15 +1113,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>137160</xdr:colOff>
+                <xdr:colOff>133350</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1202,13 +1140,13 @@
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>624840</xdr:colOff>
+                <xdr:colOff>628650</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1227,13 +1165,13 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>213360</xdr:rowOff>
+                <xdr:rowOff>209550</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>243840</xdr:colOff>
+                <xdr:colOff>247650</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>121920</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1250,15 +1188,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>259080</xdr:colOff>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>502920</xdr:colOff>
+                <xdr:colOff>504825</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1275,15 +1213,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>541020</xdr:colOff>
+                <xdr:colOff>542925</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>83820</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1300,15 +1238,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>137160</xdr:colOff>
+                <xdr:colOff>133350</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1325,15 +1263,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>411480</xdr:colOff>
+                <xdr:colOff>409575</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>655320</xdr:colOff>
+                <xdr:colOff>657225</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1343,6 +1281,31 @@
         <oleObject progId="Presentation" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId22"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Bitmap Image" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId24">
+          <objectPr defaultSize="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Bitmap Image" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
--- a/업로드할 파일들/ALLINONE.xlsx
+++ b/업로드할 파일들/ALLINONE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\FileUpload\업로드할 파일들\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15ZD90P\Desktop\fileupload\업로드할 파일들\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DBBBD9-FDAB-4D33-BFD2-5095339DC8AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D079B56-E3FB-4BAB-9077-4092BA8C6B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{232C633D-FA7D-4A8C-8B58-A46BC6690B00}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{232C633D-FA7D-4A8C-8B58-A46BC6690B00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -110,7 +110,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -159,13 +159,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>259080</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
+          <xdr:colOff>60960</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -216,13 +216,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
+          <xdr:colOff>449580</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>83820</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -269,15 +269,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
+          <xdr:colOff>137160</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -326,13 +326,13 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>628650</xdr:colOff>
+          <xdr:colOff>632460</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -381,13 +381,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>213360</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
+          <xdr:colOff>251460</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -434,15 +434,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>259080</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:colOff>502920</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -489,15 +489,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
+          <xdr:colOff>541020</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>83820</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -544,15 +544,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
+          <xdr:colOff>137160</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -599,15 +599,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>409575</xdr:colOff>
+          <xdr:colOff>411480</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>655320</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -642,74 +642,6 @@
               <a:headEnd/>
               <a:tailEnd/>
             </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>371475</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>600075</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1035" name="Object 11" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1035"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36073592-8BD3-4DC7-A33B-824D09F96E7F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1020,10 +952,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1044,7 +976,7 @@
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
+                <xdr:colOff>480060</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
@@ -1063,13 +995,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>259080</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
+                <xdr:colOff>60960</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
@@ -1090,13 +1022,13 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>533400</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>7620</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>447675</xdr:colOff>
+                <xdr:colOff>449580</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>83820</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1113,15 +1045,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
+                <xdr:colOff>137160</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>7620</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1140,13 +1072,13 @@
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>7620</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>628650</xdr:colOff>
+                <xdr:colOff>632460</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1165,13 +1097,13 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:rowOff>213360</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:colOff>251460</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>121920</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1188,15 +1120,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>259080</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>22860</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
+                <xdr:colOff>502920</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1213,15 +1145,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
+                <xdr:colOff>541020</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>83820</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1238,15 +1170,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
+                <xdr:colOff>137160</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>22860</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1263,15 +1195,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
+                <xdr:colOff>411480</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>657225</xdr:colOff>
+                <xdr:colOff>655320</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1281,31 +1213,6 @@
         <oleObject progId="Presentation" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId22"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Bitmap Image" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId24">
-          <objectPr defaultSize="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Bitmap Image" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>